--- a/GF_X-master/AAAGameData/Languages/ChineseSimplified.xlsx
+++ b/GF_X-master/AAAGameData/Languages/ChineseSimplified.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255"/>
+    <workbookView windowWidth="21000" windowHeight="8580"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -34,35 +34,38 @@
   <commentList>
     <comment ref="A1" authorId="0">
       <text>
-        <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+        <r>
           <rPr>
             <sz val="11"/>
             <rFont val="Calibri"/>
+            <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">勾选锁定此行,锁定后将强制保留</t>
-        </d:r>
+          <t>勾选锁定此行,锁定后将强制保留</t>
+        </r>
       </text>
     </comment>
     <comment ref="B1" authorId="0">
       <text>
-        <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+        <r>
           <rPr>
             <sz val="11"/>
             <rFont val="Calibri"/>
+            <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">多语言Key</t>
-        </d:r>
+          <t>多语言Key</t>
+        </r>
       </text>
     </comment>
     <comment ref="C1" authorId="0">
       <text>
-        <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+        <r>
           <rPr>
             <sz val="11"/>
             <rFont val="Calibri"/>
+            <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">多语言Value, 当值为空时, [一键翻译]会自动填充Value值</t>
-        </d:r>
+          <t>多语言Value, 当值为空时, [一键翻译]会自动填充Value值</t>
+        </r>
       </text>
     </comment>
   </commentList>
@@ -70,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
   <si>
     <t>BRAKE</t>
   </si>
@@ -232,6 +235,22 @@
   </si>
   <si>
     <t>测试</t>
+  </si>
+  <si>
+    <t>test2</t>
+  </si>
+  <si>
+    <r>
+      <t>测试</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -244,10 +263,15 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
@@ -705,156 +729,157 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" applyNumberFormat="1" fontId="1" applyFont="0" fillId="0" applyFill="0" borderId="0" applyBorder="0" applyProtection="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" applyNumberFormat="1" fontId="1" applyFont="0" fillId="0" applyFill="0" borderId="0" applyBorder="0" applyProtection="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" applyNumberFormat="1" fontId="1" applyFont="0" fillId="0" applyFill="0" borderId="0" applyBorder="0" applyProtection="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" applyNumberFormat="1" fontId="1" applyFont="0" fillId="0" applyFill="0" borderId="0" applyBorder="0" applyProtection="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" applyNumberFormat="1" fontId="1" applyFont="0" fillId="0" applyFill="0" borderId="0" applyBorder="0" applyProtection="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="0" fontId="2" applyFont="1" fillId="0" applyFill="0" borderId="0" applyBorder="0" applyProtection="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="0" fontId="3" applyFont="1" fillId="0" applyFill="0" borderId="0" applyBorder="0" applyProtection="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="0" fontId="1" applyFont="0" fillId="2" applyFill="1" borderId="1" applyBorder="1" applyProtection="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="0" fontId="4" applyFont="1" fillId="0" applyFill="0" borderId="0" applyBorder="0" applyProtection="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="0" fontId="5" applyFont="1" fillId="0" applyFill="0" borderId="0" applyBorder="0" applyProtection="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="0" fontId="6" applyFont="1" fillId="0" applyFill="0" borderId="0" applyBorder="0" applyProtection="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="0" fontId="7" applyFont="1" fillId="0" applyFill="0" borderId="2" applyBorder="1" applyProtection="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="0" fontId="8" applyFont="1" fillId="0" applyFill="0" borderId="2" applyBorder="1" applyProtection="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="0" fontId="9" applyFont="1" fillId="0" applyFill="0" borderId="3" applyBorder="1" applyProtection="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="0" fontId="9" applyFont="1" fillId="0" applyFill="0" borderId="0" applyBorder="0" applyProtection="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="0" fontId="10" applyFont="1" fillId="3" applyFill="1" borderId="4" applyBorder="1" applyProtection="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="0" fontId="11" applyFont="1" fillId="4" applyFill="1" borderId="5" applyBorder="1" applyProtection="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="0" fontId="12" applyFont="1" fillId="4" applyFill="1" borderId="4" applyBorder="1" applyProtection="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="0" fontId="13" applyFont="1" fillId="5" applyFill="1" borderId="6" applyBorder="1" applyProtection="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="0" fontId="14" applyFont="1" fillId="0" applyFill="0" borderId="7" applyBorder="1" applyProtection="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="0" fontId="15" applyFont="1" fillId="0" applyFill="0" borderId="8" applyBorder="1" applyProtection="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="0" fontId="16" applyFont="1" fillId="6" applyFill="1" borderId="0" applyBorder="0" applyProtection="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="0" fontId="17" applyFont="1" fillId="7" applyFill="1" borderId="0" applyBorder="0" applyProtection="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="0" fontId="18" applyFont="1" fillId="8" applyFill="1" borderId="0" applyBorder="0" applyProtection="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="0" fontId="19" applyFont="1" fillId="9" applyFill="1" borderId="0" applyBorder="0" applyProtection="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="0" fontId="20" applyFont="1" fillId="10" applyFill="1" borderId="0" applyBorder="0" applyProtection="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="0" fontId="20" applyFont="1" fillId="11" applyFill="1" borderId="0" applyBorder="0" applyProtection="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="0" fontId="19" applyFont="1" fillId="12" applyFill="1" borderId="0" applyBorder="0" applyProtection="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="0" fontId="19" applyFont="1" fillId="13" applyFill="1" borderId="0" applyBorder="0" applyProtection="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="0" fontId="20" applyFont="1" fillId="14" applyFill="1" borderId="0" applyBorder="0" applyProtection="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="0" fontId="20" applyFont="1" fillId="15" applyFill="1" borderId="0" applyBorder="0" applyProtection="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="0" fontId="19" applyFont="1" fillId="16" applyFill="1" borderId="0" applyBorder="0" applyProtection="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="0" fontId="19" applyFont="1" fillId="17" applyFill="1" borderId="0" applyBorder="0" applyProtection="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="0" fontId="20" applyFont="1" fillId="18" applyFill="1" borderId="0" applyBorder="0" applyProtection="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="0" fontId="20" applyFont="1" fillId="19" applyFill="1" borderId="0" applyBorder="0" applyProtection="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="0" fontId="19" applyFont="1" fillId="20" applyFill="1" borderId="0" applyBorder="0" applyProtection="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="0" fontId="19" applyFont="1" fillId="21" applyFill="1" borderId="0" applyBorder="0" applyProtection="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="0" fontId="20" applyFont="1" fillId="22" applyFill="1" borderId="0" applyBorder="0" applyProtection="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="0" fontId="20" applyFont="1" fillId="23" applyFill="1" borderId="0" applyBorder="0" applyProtection="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="0" fontId="19" applyFont="1" fillId="24" applyFill="1" borderId="0" applyBorder="0" applyProtection="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="0" fontId="19" applyFont="1" fillId="25" applyFill="1" borderId="0" applyBorder="0" applyProtection="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="0" fontId="20" applyFont="1" fillId="26" applyFill="1" borderId="0" applyBorder="0" applyProtection="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="0" fontId="20" applyFont="1" fillId="27" applyFill="1" borderId="0" applyBorder="0" applyProtection="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="0" fontId="19" applyFont="1" fillId="28" applyFill="1" borderId="0" applyBorder="0" applyProtection="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="0" fontId="19" applyFont="1" fillId="29" applyFill="1" borderId="0" applyBorder="0" applyProtection="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="0" fontId="20" applyFont="1" fillId="30" applyFill="1" borderId="0" applyBorder="0" applyProtection="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="0" fontId="20" applyFont="1" fillId="31" applyFill="1" borderId="0" applyBorder="0" applyProtection="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="0" fontId="19" applyFont="1" fillId="32" applyFill="1" borderId="0" applyBorder="0" applyProtection="0" applyAlignment="0">
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -917,652 +942,120 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" noThreeD="1" val="0"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp10.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" noThreeD="1" val="0"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp11.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" noThreeD="1" val="0"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp12.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" noThreeD="1" val="0"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp13.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" noThreeD="1" val="0"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp14.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" noThreeD="1" val="0"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp15.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" noThreeD="1" val="0"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp16.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" noThreeD="1" val="0"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp17.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" noThreeD="1" val="0"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp18.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" noThreeD="1" val="0"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp19.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" noThreeD="1" val="0"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp2.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" noThreeD="1" val="0"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp20.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" noThreeD="1" val="0"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp21.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" noThreeD="1" val="0"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp22.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" noThreeD="1" val="0"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp23.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" noThreeD="1" val="0"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp24.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" noThreeD="1" val="0"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp25.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" noThreeD="1" val="0"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp26.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" noThreeD="1" val="0"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp27.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" noThreeD="1" val="0"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp28.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" noThreeD="1" val="0"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp3.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" noThreeD="1" val="0"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp4.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" noThreeD="1" val="0"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp5.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" noThreeD="1" val="0"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp6.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" noThreeD="1" val="0"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp7.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" noThreeD="1" val="0"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp8.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" noThreeD="1" val="0"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp9.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" noThreeD="1" val="0"/>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
@@ -1577,69 +1070,50 @@
           <xdr:row>1</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
-        <xdr:sp macro="" textlink="" fLocksText="1">
+        <xdr:sp>
           <xdr:nvSpPr>
-            <xdr:cNvPr hidden="1" name="A1" id="1052">
+            <xdr:cNvPr id="1052" name="A1" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1052"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
-              <a:off y="0" x="0"/>
-              <a:ext cy="0" cx="0"/>
+              <a:off x="0" y="0"/>
+              <a:ext cx="285750" cy="182880"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr upright="1" anchor="ctr" bIns="27432" rIns="27432" tIns="27432" lIns="27432" wrap="square" vertOverflow="clip"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="27432" bIns="27432" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
-              <a:pPr rtl="0" algn="l">
+              <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-US" sz="800" baseline="0" strike="noStrike" u="none" i="0" b="0">
+                <a:rPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Segoe UI"/>
-                  <a:cs typeface="Segoe UI"/>
+                  <a:latin typeface="Segoe UI" panose="020B0502040204020203"/>
+                  <a:cs typeface="Segoe UI" panose="020B0502040204020203"/>
                 </a:rPr>
                 <a:t>锁定</a:t>
               </a:r>
+              <a:endParaRPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Segoe UI" panose="020B0502040204020203"/>
+                <a:cs typeface="Segoe UI" panose="020B0502040204020203"/>
+              </a:endParaRPr>
             </a:p>
           </xdr:txBody>
         </xdr:sp>
@@ -1663,69 +1137,50 @@
           <xdr:row>2</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
-        <xdr:sp macro="" textlink="" fLocksText="1">
+        <xdr:sp>
           <xdr:nvSpPr>
-            <xdr:cNvPr hidden="1" name="A2" id="1053">
+            <xdr:cNvPr id="1053" name="A2" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1053"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
-              <a:off y="0" x="0"/>
-              <a:ext cy="0" cx="0"/>
+              <a:off x="0" y="182880"/>
+              <a:ext cx="285750" cy="182880"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr upright="1" anchor="ctr" bIns="27432" rIns="27432" tIns="27432" lIns="27432" wrap="square" vertOverflow="clip"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="27432" bIns="27432" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
-              <a:pPr rtl="0" algn="l">
+              <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-US" sz="800" baseline="0" strike="noStrike" u="none" i="0" b="0">
+                <a:rPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Segoe UI"/>
-                  <a:cs typeface="Segoe UI"/>
+                  <a:latin typeface="Segoe UI" panose="020B0502040204020203"/>
+                  <a:cs typeface="Segoe UI" panose="020B0502040204020203"/>
                 </a:rPr>
                 <a:t>锁定</a:t>
               </a:r>
+              <a:endParaRPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Segoe UI" panose="020B0502040204020203"/>
+                <a:cs typeface="Segoe UI" panose="020B0502040204020203"/>
+              </a:endParaRPr>
             </a:p>
           </xdr:txBody>
         </xdr:sp>
@@ -1749,69 +1204,50 @@
           <xdr:row>3</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
-        <xdr:sp macro="" textlink="" fLocksText="1">
+        <xdr:sp>
           <xdr:nvSpPr>
-            <xdr:cNvPr hidden="1" name="A3" id="1054">
+            <xdr:cNvPr id="1054" name="A3" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1054"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
-              <a:off y="0" x="0"/>
-              <a:ext cy="0" cx="0"/>
+              <a:off x="0" y="365760"/>
+              <a:ext cx="285750" cy="182880"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr upright="1" anchor="ctr" bIns="27432" rIns="27432" tIns="27432" lIns="27432" wrap="square" vertOverflow="clip"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="27432" bIns="27432" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
-              <a:pPr rtl="0" algn="l">
+              <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-US" sz="800" baseline="0" strike="noStrike" u="none" i="0" b="0">
+                <a:rPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Segoe UI"/>
-                  <a:cs typeface="Segoe UI"/>
+                  <a:latin typeface="Segoe UI" panose="020B0502040204020203"/>
+                  <a:cs typeface="Segoe UI" panose="020B0502040204020203"/>
                 </a:rPr>
                 <a:t>锁定</a:t>
               </a:r>
+              <a:endParaRPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Segoe UI" panose="020B0502040204020203"/>
+                <a:cs typeface="Segoe UI" panose="020B0502040204020203"/>
+              </a:endParaRPr>
             </a:p>
           </xdr:txBody>
         </xdr:sp>
@@ -1835,69 +1271,50 @@
           <xdr:row>4</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
-        <xdr:sp macro="" textlink="" fLocksText="1">
+        <xdr:sp>
           <xdr:nvSpPr>
-            <xdr:cNvPr hidden="1" name="A4" id="1055">
+            <xdr:cNvPr id="1055" name="A4" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1055"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
-              <a:off y="0" x="0"/>
-              <a:ext cy="0" cx="0"/>
+              <a:off x="0" y="548640"/>
+              <a:ext cx="285750" cy="182880"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr upright="1" anchor="ctr" bIns="27432" rIns="27432" tIns="27432" lIns="27432" wrap="square" vertOverflow="clip"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="27432" bIns="27432" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
-              <a:pPr rtl="0" algn="l">
+              <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-US" sz="800" baseline="0" strike="noStrike" u="none" i="0" b="0">
+                <a:rPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Segoe UI"/>
-                  <a:cs typeface="Segoe UI"/>
+                  <a:latin typeface="Segoe UI" panose="020B0502040204020203"/>
+                  <a:cs typeface="Segoe UI" panose="020B0502040204020203"/>
                 </a:rPr>
                 <a:t>锁定</a:t>
               </a:r>
+              <a:endParaRPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Segoe UI" panose="020B0502040204020203"/>
+                <a:cs typeface="Segoe UI" panose="020B0502040204020203"/>
+              </a:endParaRPr>
             </a:p>
           </xdr:txBody>
         </xdr:sp>
@@ -1921,69 +1338,50 @@
           <xdr:row>5</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
-        <xdr:sp macro="" textlink="" fLocksText="1">
+        <xdr:sp>
           <xdr:nvSpPr>
-            <xdr:cNvPr hidden="1" name="A5" id="1056">
+            <xdr:cNvPr id="1056" name="A5" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1056"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
-              <a:off y="0" x="0"/>
-              <a:ext cy="0" cx="0"/>
+              <a:off x="0" y="731520"/>
+              <a:ext cx="285750" cy="182880"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr upright="1" anchor="ctr" bIns="27432" rIns="27432" tIns="27432" lIns="27432" wrap="square" vertOverflow="clip"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="27432" bIns="27432" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
-              <a:pPr rtl="0" algn="l">
+              <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-US" sz="800" baseline="0" strike="noStrike" u="none" i="0" b="0">
+                <a:rPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Segoe UI"/>
-                  <a:cs typeface="Segoe UI"/>
+                  <a:latin typeface="Segoe UI" panose="020B0502040204020203"/>
+                  <a:cs typeface="Segoe UI" panose="020B0502040204020203"/>
                 </a:rPr>
                 <a:t>锁定</a:t>
               </a:r>
+              <a:endParaRPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Segoe UI" panose="020B0502040204020203"/>
+                <a:cs typeface="Segoe UI" panose="020B0502040204020203"/>
+              </a:endParaRPr>
             </a:p>
           </xdr:txBody>
         </xdr:sp>
@@ -2007,69 +1405,50 @@
           <xdr:row>6</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
-        <xdr:sp macro="" textlink="" fLocksText="1">
+        <xdr:sp>
           <xdr:nvSpPr>
-            <xdr:cNvPr hidden="1" name="A6" id="1057">
+            <xdr:cNvPr id="1057" name="A6" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1057"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
-              <a:off y="0" x="0"/>
-              <a:ext cy="0" cx="0"/>
+              <a:off x="0" y="914400"/>
+              <a:ext cx="285750" cy="182880"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr upright="1" anchor="ctr" bIns="27432" rIns="27432" tIns="27432" lIns="27432" wrap="square" vertOverflow="clip"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="27432" bIns="27432" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
-              <a:pPr rtl="0" algn="l">
+              <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-US" sz="800" baseline="0" strike="noStrike" u="none" i="0" b="0">
+                <a:rPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Segoe UI"/>
-                  <a:cs typeface="Segoe UI"/>
+                  <a:latin typeface="Segoe UI" panose="020B0502040204020203"/>
+                  <a:cs typeface="Segoe UI" panose="020B0502040204020203"/>
                 </a:rPr>
                 <a:t>锁定</a:t>
               </a:r>
+              <a:endParaRPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Segoe UI" panose="020B0502040204020203"/>
+                <a:cs typeface="Segoe UI" panose="020B0502040204020203"/>
+              </a:endParaRPr>
             </a:p>
           </xdr:txBody>
         </xdr:sp>
@@ -2093,69 +1472,50 @@
           <xdr:row>7</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
-        <xdr:sp macro="" textlink="" fLocksText="1">
+        <xdr:sp>
           <xdr:nvSpPr>
-            <xdr:cNvPr hidden="1" name="A7" id="1058">
+            <xdr:cNvPr id="1058" name="A7" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1058"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
-              <a:off y="0" x="0"/>
-              <a:ext cy="0" cx="0"/>
+              <a:off x="0" y="1097280"/>
+              <a:ext cx="285750" cy="182880"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr upright="1" anchor="ctr" bIns="27432" rIns="27432" tIns="27432" lIns="27432" wrap="square" vertOverflow="clip"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="27432" bIns="27432" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
-              <a:pPr rtl="0" algn="l">
+              <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-US" sz="800" baseline="0" strike="noStrike" u="none" i="0" b="0">
+                <a:rPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Segoe UI"/>
-                  <a:cs typeface="Segoe UI"/>
+                  <a:latin typeface="Segoe UI" panose="020B0502040204020203"/>
+                  <a:cs typeface="Segoe UI" panose="020B0502040204020203"/>
                 </a:rPr>
                 <a:t>锁定</a:t>
               </a:r>
+              <a:endParaRPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Segoe UI" panose="020B0502040204020203"/>
+                <a:cs typeface="Segoe UI" panose="020B0502040204020203"/>
+              </a:endParaRPr>
             </a:p>
           </xdr:txBody>
         </xdr:sp>
@@ -2179,69 +1539,50 @@
           <xdr:row>8</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
-        <xdr:sp macro="" textlink="" fLocksText="1">
+        <xdr:sp>
           <xdr:nvSpPr>
-            <xdr:cNvPr hidden="1" name="A8" id="1059">
+            <xdr:cNvPr id="1059" name="A8" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1059"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
-              <a:off y="0" x="0"/>
-              <a:ext cy="0" cx="0"/>
+              <a:off x="0" y="1280160"/>
+              <a:ext cx="285750" cy="182880"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr upright="1" anchor="ctr" bIns="27432" rIns="27432" tIns="27432" lIns="27432" wrap="square" vertOverflow="clip"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="27432" bIns="27432" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
-              <a:pPr rtl="0" algn="l">
+              <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-US" sz="800" baseline="0" strike="noStrike" u="none" i="0" b="0">
+                <a:rPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Segoe UI"/>
-                  <a:cs typeface="Segoe UI"/>
+                  <a:latin typeface="Segoe UI" panose="020B0502040204020203"/>
+                  <a:cs typeface="Segoe UI" panose="020B0502040204020203"/>
                 </a:rPr>
                 <a:t>锁定</a:t>
               </a:r>
+              <a:endParaRPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Segoe UI" panose="020B0502040204020203"/>
+                <a:cs typeface="Segoe UI" panose="020B0502040204020203"/>
+              </a:endParaRPr>
             </a:p>
           </xdr:txBody>
         </xdr:sp>
@@ -2265,69 +1606,50 @@
           <xdr:row>9</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
-        <xdr:sp macro="" textlink="" fLocksText="1">
+        <xdr:sp>
           <xdr:nvSpPr>
-            <xdr:cNvPr hidden="1" name="A9" id="1060">
+            <xdr:cNvPr id="1060" name="A9" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1060"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
-              <a:off y="0" x="0"/>
-              <a:ext cy="0" cx="0"/>
+              <a:off x="0" y="1463040"/>
+              <a:ext cx="285750" cy="182880"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr upright="1" anchor="ctr" bIns="27432" rIns="27432" tIns="27432" lIns="27432" wrap="square" vertOverflow="clip"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="27432" bIns="27432" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
-              <a:pPr rtl="0" algn="l">
+              <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-US" sz="800" baseline="0" strike="noStrike" u="none" i="0" b="0">
+                <a:rPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Segoe UI"/>
-                  <a:cs typeface="Segoe UI"/>
+                  <a:latin typeface="Segoe UI" panose="020B0502040204020203"/>
+                  <a:cs typeface="Segoe UI" panose="020B0502040204020203"/>
                 </a:rPr>
                 <a:t>锁定</a:t>
               </a:r>
+              <a:endParaRPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Segoe UI" panose="020B0502040204020203"/>
+                <a:cs typeface="Segoe UI" panose="020B0502040204020203"/>
+              </a:endParaRPr>
             </a:p>
           </xdr:txBody>
         </xdr:sp>
@@ -2351,69 +1673,50 @@
           <xdr:row>10</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
-        <xdr:sp macro="" textlink="" fLocksText="1">
+        <xdr:sp>
           <xdr:nvSpPr>
-            <xdr:cNvPr hidden="1" name="A10" id="1061">
+            <xdr:cNvPr id="1061" name="A10" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1061"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
-              <a:off y="0" x="0"/>
-              <a:ext cy="0" cx="0"/>
+              <a:off x="0" y="1645920"/>
+              <a:ext cx="285750" cy="182880"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr upright="1" anchor="ctr" bIns="27432" rIns="27432" tIns="27432" lIns="27432" wrap="square" vertOverflow="clip"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="27432" bIns="27432" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
-              <a:pPr rtl="0" algn="l">
+              <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-US" sz="800" baseline="0" strike="noStrike" u="none" i="0" b="0">
+                <a:rPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Segoe UI"/>
-                  <a:cs typeface="Segoe UI"/>
+                  <a:latin typeface="Segoe UI" panose="020B0502040204020203"/>
+                  <a:cs typeface="Segoe UI" panose="020B0502040204020203"/>
                 </a:rPr>
                 <a:t>锁定</a:t>
               </a:r>
+              <a:endParaRPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Segoe UI" panose="020B0502040204020203"/>
+                <a:cs typeface="Segoe UI" panose="020B0502040204020203"/>
+              </a:endParaRPr>
             </a:p>
           </xdr:txBody>
         </xdr:sp>
@@ -2437,69 +1740,50 @@
           <xdr:row>11</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
-        <xdr:sp macro="" textlink="" fLocksText="1">
+        <xdr:sp>
           <xdr:nvSpPr>
-            <xdr:cNvPr hidden="1" name="A11" id="1062">
+            <xdr:cNvPr id="1062" name="A11" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1062"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
-              <a:off y="0" x="0"/>
-              <a:ext cy="0" cx="0"/>
+              <a:off x="0" y="1828800"/>
+              <a:ext cx="285750" cy="182880"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr upright="1" anchor="ctr" bIns="27432" rIns="27432" tIns="27432" lIns="27432" wrap="square" vertOverflow="clip"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="27432" bIns="27432" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
-              <a:pPr rtl="0" algn="l">
+              <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-US" sz="800" baseline="0" strike="noStrike" u="none" i="0" b="0">
+                <a:rPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Segoe UI"/>
-                  <a:cs typeface="Segoe UI"/>
+                  <a:latin typeface="Segoe UI" panose="020B0502040204020203"/>
+                  <a:cs typeface="Segoe UI" panose="020B0502040204020203"/>
                 </a:rPr>
                 <a:t>锁定</a:t>
               </a:r>
+              <a:endParaRPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Segoe UI" panose="020B0502040204020203"/>
+                <a:cs typeface="Segoe UI" panose="020B0502040204020203"/>
+              </a:endParaRPr>
             </a:p>
           </xdr:txBody>
         </xdr:sp>
@@ -2523,69 +1807,50 @@
           <xdr:row>12</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
-        <xdr:sp macro="" textlink="" fLocksText="1">
+        <xdr:sp>
           <xdr:nvSpPr>
-            <xdr:cNvPr hidden="1" name="A12" id="1063">
+            <xdr:cNvPr id="1063" name="A12" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1063"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
-              <a:off y="0" x="0"/>
-              <a:ext cy="0" cx="0"/>
+              <a:off x="0" y="2011680"/>
+              <a:ext cx="285750" cy="182880"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr upright="1" anchor="ctr" bIns="27432" rIns="27432" tIns="27432" lIns="27432" wrap="square" vertOverflow="clip"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="27432" bIns="27432" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
-              <a:pPr rtl="0" algn="l">
+              <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-US" sz="800" baseline="0" strike="noStrike" u="none" i="0" b="0">
+                <a:rPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Segoe UI"/>
-                  <a:cs typeface="Segoe UI"/>
+                  <a:latin typeface="Segoe UI" panose="020B0502040204020203"/>
+                  <a:cs typeface="Segoe UI" panose="020B0502040204020203"/>
                 </a:rPr>
                 <a:t>锁定</a:t>
               </a:r>
+              <a:endParaRPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Segoe UI" panose="020B0502040204020203"/>
+                <a:cs typeface="Segoe UI" panose="020B0502040204020203"/>
+              </a:endParaRPr>
             </a:p>
           </xdr:txBody>
         </xdr:sp>
@@ -2609,69 +1874,50 @@
           <xdr:row>13</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
-        <xdr:sp macro="" textlink="" fLocksText="1">
+        <xdr:sp>
           <xdr:nvSpPr>
-            <xdr:cNvPr hidden="1" name="A13" id="1064">
+            <xdr:cNvPr id="1064" name="A13" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1064"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
-              <a:off y="0" x="0"/>
-              <a:ext cy="0" cx="0"/>
+              <a:off x="0" y="2194560"/>
+              <a:ext cx="285750" cy="182880"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr upright="1" anchor="ctr" bIns="27432" rIns="27432" tIns="27432" lIns="27432" wrap="square" vertOverflow="clip"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="27432" bIns="27432" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
-              <a:pPr rtl="0" algn="l">
+              <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-US" sz="800" baseline="0" strike="noStrike" u="none" i="0" b="0">
+                <a:rPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Segoe UI"/>
-                  <a:cs typeface="Segoe UI"/>
+                  <a:latin typeface="Segoe UI" panose="020B0502040204020203"/>
+                  <a:cs typeface="Segoe UI" panose="020B0502040204020203"/>
                 </a:rPr>
                 <a:t>锁定</a:t>
               </a:r>
+              <a:endParaRPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Segoe UI" panose="020B0502040204020203"/>
+                <a:cs typeface="Segoe UI" panose="020B0502040204020203"/>
+              </a:endParaRPr>
             </a:p>
           </xdr:txBody>
         </xdr:sp>
@@ -2695,69 +1941,50 @@
           <xdr:row>14</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
-        <xdr:sp macro="" textlink="" fLocksText="1">
+        <xdr:sp>
           <xdr:nvSpPr>
-            <xdr:cNvPr hidden="1" name="A14" id="1065">
+            <xdr:cNvPr id="1065" name="A14" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1065"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
-              <a:off y="0" x="0"/>
-              <a:ext cy="0" cx="0"/>
+              <a:off x="0" y="2377440"/>
+              <a:ext cx="285750" cy="182880"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr upright="1" anchor="ctr" bIns="27432" rIns="27432" tIns="27432" lIns="27432" wrap="square" vertOverflow="clip"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="27432" bIns="27432" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
-              <a:pPr rtl="0" algn="l">
+              <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-US" sz="800" baseline="0" strike="noStrike" u="none" i="0" b="0">
+                <a:rPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Segoe UI"/>
-                  <a:cs typeface="Segoe UI"/>
+                  <a:latin typeface="Segoe UI" panose="020B0502040204020203"/>
+                  <a:cs typeface="Segoe UI" panose="020B0502040204020203"/>
                 </a:rPr>
                 <a:t>锁定</a:t>
               </a:r>
+              <a:endParaRPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Segoe UI" panose="020B0502040204020203"/>
+                <a:cs typeface="Segoe UI" panose="020B0502040204020203"/>
+              </a:endParaRPr>
             </a:p>
           </xdr:txBody>
         </xdr:sp>
@@ -2781,69 +2008,50 @@
           <xdr:row>15</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
-        <xdr:sp macro="" textlink="" fLocksText="1">
+        <xdr:sp>
           <xdr:nvSpPr>
-            <xdr:cNvPr hidden="1" name="A15" id="1066">
+            <xdr:cNvPr id="1066" name="A15" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1066"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
-              <a:off y="0" x="0"/>
-              <a:ext cy="0" cx="0"/>
+              <a:off x="0" y="2560320"/>
+              <a:ext cx="285750" cy="182880"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr upright="1" anchor="ctr" bIns="27432" rIns="27432" tIns="27432" lIns="27432" wrap="square" vertOverflow="clip"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="27432" bIns="27432" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
-              <a:pPr rtl="0" algn="l">
+              <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-US" sz="800" baseline="0" strike="noStrike" u="none" i="0" b="0">
+                <a:rPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Segoe UI"/>
-                  <a:cs typeface="Segoe UI"/>
+                  <a:latin typeface="Segoe UI" panose="020B0502040204020203"/>
+                  <a:cs typeface="Segoe UI" panose="020B0502040204020203"/>
                 </a:rPr>
                 <a:t>锁定</a:t>
               </a:r>
+              <a:endParaRPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Segoe UI" panose="020B0502040204020203"/>
+                <a:cs typeface="Segoe UI" panose="020B0502040204020203"/>
+              </a:endParaRPr>
             </a:p>
           </xdr:txBody>
         </xdr:sp>
@@ -2867,69 +2075,50 @@
           <xdr:row>16</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
-        <xdr:sp macro="" textlink="" fLocksText="1">
+        <xdr:sp>
           <xdr:nvSpPr>
-            <xdr:cNvPr hidden="1" name="A16" id="1067">
+            <xdr:cNvPr id="1067" name="A16" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1067"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
-              <a:off y="0" x="0"/>
-              <a:ext cy="0" cx="0"/>
+              <a:off x="0" y="2743200"/>
+              <a:ext cx="285750" cy="182880"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr upright="1" anchor="ctr" bIns="27432" rIns="27432" tIns="27432" lIns="27432" wrap="square" vertOverflow="clip"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="27432" bIns="27432" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
-              <a:pPr rtl="0" algn="l">
+              <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-US" sz="800" baseline="0" strike="noStrike" u="none" i="0" b="0">
+                <a:rPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Segoe UI"/>
-                  <a:cs typeface="Segoe UI"/>
+                  <a:latin typeface="Segoe UI" panose="020B0502040204020203"/>
+                  <a:cs typeface="Segoe UI" panose="020B0502040204020203"/>
                 </a:rPr>
                 <a:t>锁定</a:t>
               </a:r>
+              <a:endParaRPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Segoe UI" panose="020B0502040204020203"/>
+                <a:cs typeface="Segoe UI" panose="020B0502040204020203"/>
+              </a:endParaRPr>
             </a:p>
           </xdr:txBody>
         </xdr:sp>
@@ -2953,69 +2142,50 @@
           <xdr:row>17</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
-        <xdr:sp macro="" textlink="" fLocksText="1">
+        <xdr:sp>
           <xdr:nvSpPr>
-            <xdr:cNvPr hidden="1" name="A17" id="1068">
+            <xdr:cNvPr id="1068" name="A17" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1068"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
-              <a:off y="0" x="0"/>
-              <a:ext cy="0" cx="0"/>
+              <a:off x="0" y="2926080"/>
+              <a:ext cx="285750" cy="182880"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr upright="1" anchor="ctr" bIns="27432" rIns="27432" tIns="27432" lIns="27432" wrap="square" vertOverflow="clip"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="27432" bIns="27432" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
-              <a:pPr rtl="0" algn="l">
+              <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-US" sz="800" baseline="0" strike="noStrike" u="none" i="0" b="0">
+                <a:rPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Segoe UI"/>
-                  <a:cs typeface="Segoe UI"/>
+                  <a:latin typeface="Segoe UI" panose="020B0502040204020203"/>
+                  <a:cs typeface="Segoe UI" panose="020B0502040204020203"/>
                 </a:rPr>
                 <a:t>锁定</a:t>
               </a:r>
+              <a:endParaRPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Segoe UI" panose="020B0502040204020203"/>
+                <a:cs typeface="Segoe UI" panose="020B0502040204020203"/>
+              </a:endParaRPr>
             </a:p>
           </xdr:txBody>
         </xdr:sp>
@@ -3039,69 +2209,50 @@
           <xdr:row>18</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
-        <xdr:sp macro="" textlink="" fLocksText="1">
+        <xdr:sp>
           <xdr:nvSpPr>
-            <xdr:cNvPr hidden="1" name="A18" id="1069">
+            <xdr:cNvPr id="1069" name="A18" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1069"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
-              <a:off y="0" x="0"/>
-              <a:ext cy="0" cx="0"/>
+              <a:off x="0" y="3108960"/>
+              <a:ext cx="285750" cy="182880"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr upright="1" anchor="ctr" bIns="27432" rIns="27432" tIns="27432" lIns="27432" wrap="square" vertOverflow="clip"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="27432" bIns="27432" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
-              <a:pPr rtl="0" algn="l">
+              <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-US" sz="800" baseline="0" strike="noStrike" u="none" i="0" b="0">
+                <a:rPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Segoe UI"/>
-                  <a:cs typeface="Segoe UI"/>
+                  <a:latin typeface="Segoe UI" panose="020B0502040204020203"/>
+                  <a:cs typeface="Segoe UI" panose="020B0502040204020203"/>
                 </a:rPr>
                 <a:t>锁定</a:t>
               </a:r>
+              <a:endParaRPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Segoe UI" panose="020B0502040204020203"/>
+                <a:cs typeface="Segoe UI" panose="020B0502040204020203"/>
+              </a:endParaRPr>
             </a:p>
           </xdr:txBody>
         </xdr:sp>
@@ -3125,69 +2276,50 @@
           <xdr:row>19</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
-        <xdr:sp macro="" textlink="" fLocksText="1">
+        <xdr:sp>
           <xdr:nvSpPr>
-            <xdr:cNvPr hidden="1" name="A19" id="1070">
+            <xdr:cNvPr id="1070" name="A19" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1070"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
-              <a:off y="0" x="0"/>
-              <a:ext cy="0" cx="0"/>
+              <a:off x="0" y="3291840"/>
+              <a:ext cx="285750" cy="182880"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr upright="1" anchor="ctr" bIns="27432" rIns="27432" tIns="27432" lIns="27432" wrap="square" vertOverflow="clip"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="27432" bIns="27432" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
-              <a:pPr rtl="0" algn="l">
+              <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-US" sz="800" baseline="0" strike="noStrike" u="none" i="0" b="0">
+                <a:rPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Segoe UI"/>
-                  <a:cs typeface="Segoe UI"/>
+                  <a:latin typeface="Segoe UI" panose="020B0502040204020203"/>
+                  <a:cs typeface="Segoe UI" panose="020B0502040204020203"/>
                 </a:rPr>
                 <a:t>锁定</a:t>
               </a:r>
+              <a:endParaRPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Segoe UI" panose="020B0502040204020203"/>
+                <a:cs typeface="Segoe UI" panose="020B0502040204020203"/>
+              </a:endParaRPr>
             </a:p>
           </xdr:txBody>
         </xdr:sp>
@@ -3211,69 +2343,50 @@
           <xdr:row>20</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
-        <xdr:sp macro="" textlink="" fLocksText="1">
+        <xdr:sp>
           <xdr:nvSpPr>
-            <xdr:cNvPr hidden="1" name="A20" id="1071">
+            <xdr:cNvPr id="1071" name="A20" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1071"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
-              <a:off y="0" x="0"/>
-              <a:ext cy="0" cx="0"/>
+              <a:off x="0" y="3474720"/>
+              <a:ext cx="285750" cy="182880"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr upright="1" anchor="ctr" bIns="27432" rIns="27432" tIns="27432" lIns="27432" wrap="square" vertOverflow="clip"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="27432" bIns="27432" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
-              <a:pPr rtl="0" algn="l">
+              <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-US" sz="800" baseline="0" strike="noStrike" u="none" i="0" b="0">
+                <a:rPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Segoe UI"/>
-                  <a:cs typeface="Segoe UI"/>
+                  <a:latin typeface="Segoe UI" panose="020B0502040204020203"/>
+                  <a:cs typeface="Segoe UI" panose="020B0502040204020203"/>
                 </a:rPr>
                 <a:t>锁定</a:t>
               </a:r>
+              <a:endParaRPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Segoe UI" panose="020B0502040204020203"/>
+                <a:cs typeface="Segoe UI" panose="020B0502040204020203"/>
+              </a:endParaRPr>
             </a:p>
           </xdr:txBody>
         </xdr:sp>
@@ -3297,69 +2410,50 @@
           <xdr:row>21</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
-        <xdr:sp macro="" textlink="" fLocksText="1">
+        <xdr:sp>
           <xdr:nvSpPr>
-            <xdr:cNvPr hidden="1" name="A21" id="1072">
+            <xdr:cNvPr id="1072" name="A21" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1072"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
-              <a:off y="0" x="0"/>
-              <a:ext cy="0" cx="0"/>
+              <a:off x="0" y="3657600"/>
+              <a:ext cx="285750" cy="182880"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr upright="1" anchor="ctr" bIns="27432" rIns="27432" tIns="27432" lIns="27432" wrap="square" vertOverflow="clip"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="27432" bIns="27432" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
-              <a:pPr rtl="0" algn="l">
+              <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-US" sz="800" baseline="0" strike="noStrike" u="none" i="0" b="0">
+                <a:rPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Segoe UI"/>
-                  <a:cs typeface="Segoe UI"/>
+                  <a:latin typeface="Segoe UI" panose="020B0502040204020203"/>
+                  <a:cs typeface="Segoe UI" panose="020B0502040204020203"/>
                 </a:rPr>
                 <a:t>锁定</a:t>
               </a:r>
+              <a:endParaRPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Segoe UI" panose="020B0502040204020203"/>
+                <a:cs typeface="Segoe UI" panose="020B0502040204020203"/>
+              </a:endParaRPr>
             </a:p>
           </xdr:txBody>
         </xdr:sp>
@@ -3383,69 +2477,50 @@
           <xdr:row>22</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
-        <xdr:sp macro="" textlink="" fLocksText="1">
+        <xdr:sp>
           <xdr:nvSpPr>
-            <xdr:cNvPr hidden="1" name="A22" id="1073">
+            <xdr:cNvPr id="1073" name="A22" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1073"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
-              <a:off y="0" x="0"/>
-              <a:ext cy="0" cx="0"/>
+              <a:off x="0" y="3840480"/>
+              <a:ext cx="285750" cy="182880"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr upright="1" anchor="ctr" bIns="27432" rIns="27432" tIns="27432" lIns="27432" wrap="square" vertOverflow="clip"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="27432" bIns="27432" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
-              <a:pPr rtl="0" algn="l">
+              <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-US" sz="800" baseline="0" strike="noStrike" u="none" i="0" b="0">
+                <a:rPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Segoe UI"/>
-                  <a:cs typeface="Segoe UI"/>
+                  <a:latin typeface="Segoe UI" panose="020B0502040204020203"/>
+                  <a:cs typeface="Segoe UI" panose="020B0502040204020203"/>
                 </a:rPr>
                 <a:t>锁定</a:t>
               </a:r>
+              <a:endParaRPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Segoe UI" panose="020B0502040204020203"/>
+                <a:cs typeface="Segoe UI" panose="020B0502040204020203"/>
+              </a:endParaRPr>
             </a:p>
           </xdr:txBody>
         </xdr:sp>
@@ -3469,69 +2544,50 @@
           <xdr:row>23</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
-        <xdr:sp macro="" textlink="" fLocksText="1">
+        <xdr:sp>
           <xdr:nvSpPr>
-            <xdr:cNvPr hidden="1" name="A23" id="1074">
+            <xdr:cNvPr id="1074" name="A23" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1074"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
-              <a:off y="0" x="0"/>
-              <a:ext cy="0" cx="0"/>
+              <a:off x="0" y="4023360"/>
+              <a:ext cx="285750" cy="182880"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr upright="1" anchor="ctr" bIns="27432" rIns="27432" tIns="27432" lIns="27432" wrap="square" vertOverflow="clip"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="27432" bIns="27432" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
-              <a:pPr rtl="0" algn="l">
+              <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-US" sz="800" baseline="0" strike="noStrike" u="none" i="0" b="0">
+                <a:rPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Segoe UI"/>
-                  <a:cs typeface="Segoe UI"/>
+                  <a:latin typeface="Segoe UI" panose="020B0502040204020203"/>
+                  <a:cs typeface="Segoe UI" panose="020B0502040204020203"/>
                 </a:rPr>
                 <a:t>锁定</a:t>
               </a:r>
+              <a:endParaRPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Segoe UI" panose="020B0502040204020203"/>
+                <a:cs typeface="Segoe UI" panose="020B0502040204020203"/>
+              </a:endParaRPr>
             </a:p>
           </xdr:txBody>
         </xdr:sp>
@@ -3555,69 +2611,50 @@
           <xdr:row>24</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
-        <xdr:sp macro="" textlink="" fLocksText="1">
+        <xdr:sp>
           <xdr:nvSpPr>
-            <xdr:cNvPr hidden="1" name="A24" id="1075">
+            <xdr:cNvPr id="1075" name="A24" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1075"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
-              <a:off y="0" x="0"/>
-              <a:ext cy="0" cx="0"/>
+              <a:off x="0" y="4206240"/>
+              <a:ext cx="285750" cy="182880"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr upright="1" anchor="ctr" bIns="27432" rIns="27432" tIns="27432" lIns="27432" wrap="square" vertOverflow="clip"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="27432" bIns="27432" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
-              <a:pPr rtl="0" algn="l">
+              <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-US" sz="800" baseline="0" strike="noStrike" u="none" i="0" b="0">
+                <a:rPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Segoe UI"/>
-                  <a:cs typeface="Segoe UI"/>
+                  <a:latin typeface="Segoe UI" panose="020B0502040204020203"/>
+                  <a:cs typeface="Segoe UI" panose="020B0502040204020203"/>
                 </a:rPr>
                 <a:t>锁定</a:t>
               </a:r>
+              <a:endParaRPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Segoe UI" panose="020B0502040204020203"/>
+                <a:cs typeface="Segoe UI" panose="020B0502040204020203"/>
+              </a:endParaRPr>
             </a:p>
           </xdr:txBody>
         </xdr:sp>
@@ -3641,69 +2678,50 @@
           <xdr:row>25</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
-        <xdr:sp macro="" textlink="" fLocksText="1">
+        <xdr:sp>
           <xdr:nvSpPr>
-            <xdr:cNvPr hidden="1" name="A25" id="1076">
+            <xdr:cNvPr id="1076" name="A25" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1076"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
-              <a:off y="0" x="0"/>
-              <a:ext cy="0" cx="0"/>
+              <a:off x="0" y="4389120"/>
+              <a:ext cx="285750" cy="182880"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr upright="1" anchor="ctr" bIns="27432" rIns="27432" tIns="27432" lIns="27432" wrap="square" vertOverflow="clip"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="27432" bIns="27432" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
-              <a:pPr rtl="0" algn="l">
+              <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-US" sz="800" baseline="0" strike="noStrike" u="none" i="0" b="0">
+                <a:rPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Segoe UI"/>
-                  <a:cs typeface="Segoe UI"/>
+                  <a:latin typeface="Segoe UI" panose="020B0502040204020203"/>
+                  <a:cs typeface="Segoe UI" panose="020B0502040204020203"/>
                 </a:rPr>
                 <a:t>锁定</a:t>
               </a:r>
+              <a:endParaRPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Segoe UI" panose="020B0502040204020203"/>
+                <a:cs typeface="Segoe UI" panose="020B0502040204020203"/>
+              </a:endParaRPr>
             </a:p>
           </xdr:txBody>
         </xdr:sp>
@@ -3727,69 +2745,50 @@
           <xdr:row>26</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
-        <xdr:sp macro="" textlink="" fLocksText="1">
+        <xdr:sp>
           <xdr:nvSpPr>
-            <xdr:cNvPr hidden="1" name="A26" id="1077">
+            <xdr:cNvPr id="1077" name="A26" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1077"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
-              <a:off y="0" x="0"/>
-              <a:ext cy="0" cx="0"/>
+              <a:off x="0" y="4572000"/>
+              <a:ext cx="285750" cy="182880"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr upright="1" anchor="ctr" bIns="27432" rIns="27432" tIns="27432" lIns="27432" wrap="square" vertOverflow="clip"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="27432" bIns="27432" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
-              <a:pPr rtl="0" algn="l">
+              <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-US" sz="800" baseline="0" strike="noStrike" u="none" i="0" b="0">
+                <a:rPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Segoe UI"/>
-                  <a:cs typeface="Segoe UI"/>
+                  <a:latin typeface="Segoe UI" panose="020B0502040204020203"/>
+                  <a:cs typeface="Segoe UI" panose="020B0502040204020203"/>
                 </a:rPr>
                 <a:t>锁定</a:t>
               </a:r>
+              <a:endParaRPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Segoe UI" panose="020B0502040204020203"/>
+                <a:cs typeface="Segoe UI" panose="020B0502040204020203"/>
+              </a:endParaRPr>
             </a:p>
           </xdr:txBody>
         </xdr:sp>
@@ -3813,69 +2812,184 @@
           <xdr:row>27</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
-        <xdr:sp macro="" textlink="" fLocksText="1">
+        <xdr:sp>
           <xdr:nvSpPr>
-            <xdr:cNvPr hidden="1" name="A27" id="1078">
+            <xdr:cNvPr id="1078" name="A27" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1078"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
-              <a:off y="0" x="0"/>
-              <a:ext cy="0" cx="0"/>
+              <a:off x="0" y="4754880"/>
+              <a:ext cx="285750" cy="182880"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr upright="1" anchor="ctr" bIns="27432" rIns="27432" tIns="27432" lIns="27432" wrap="square" vertOverflow="clip"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="27432" bIns="27432" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
-              <a:pPr rtl="0" algn="l">
+              <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-US" sz="800" baseline="0" strike="noStrike" u="none" i="0" b="0">
+                <a:rPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Segoe UI"/>
-                  <a:cs typeface="Segoe UI"/>
+                  <a:latin typeface="Segoe UI" panose="020B0502040204020203"/>
+                  <a:cs typeface="Segoe UI" panose="020B0502040204020203"/>
                 </a:rPr>
                 <a:t>锁定</a:t>
               </a:r>
+              <a:endParaRPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Segoe UI" panose="020B0502040204020203"/>
+                <a:cs typeface="Segoe UI" panose="020B0502040204020203"/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData fPrintsWithSheet="0"/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>27</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>285750</xdr:colOff>
+          <xdr:row>28</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp>
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1082" name="A27" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1082"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="4937760"/>
+              <a:ext cx="285750" cy="182880"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="27432" bIns="27432" anchor="ctr" upright="1"/>
+            <a:lstStyle>
+              <a:defPPr>
+                <a:defRPr lang="zh-CN"/>
+              </a:defPPr>
+              <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl1pPr>
+              <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl2pPr>
+              <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl3pPr>
+              <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl4pPr>
+              <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl5pPr>
+              <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl6pPr>
+              <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl7pPr>
+              <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl8pPr>
+              <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl9pPr>
+            </a:lstStyle>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Segoe UI" panose="020B0502040204020203"/>
+                  <a:cs typeface="Segoe UI" panose="020B0502040204020203"/>
+                </a:rPr>
+                <a:t>锁定</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" altLang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Segoe UI" panose="020B0502040204020203"/>
+                <a:cs typeface="Segoe UI" panose="020B0502040204020203"/>
+              </a:endParaRPr>
             </a:p>
           </xdr:txBody>
         </xdr:sp>
@@ -4145,260 +3259,269 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C27"/>
+  <dimension ref="A1:C28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="2" max="2" width="22.3505663190569" customWidth="1"/>
-    <col min="3" max="3" width="38.6902858189174" customWidth="1"/>
+    <col min="2" max="2" width="22.3518518518519" customWidth="1"/>
+    <col min="3" max="3" width="38.6944444444444" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:3">
       <c r="A1" s="1"/>
-      <c r="B1" s="0" t="s">
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:3">
       <c r="A2" s="1"/>
-      <c r="B2" s="0" t="s">
+      <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:3">
       <c r="A3" s="1"/>
-      <c r="B3" s="0" t="s">
+      <c r="B3" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:3">
       <c r="A4" s="1"/>
-      <c r="B4" s="0" t="s">
+      <c r="B4" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:3">
       <c r="A5" s="1"/>
-      <c r="B5" s="0" t="s">
+      <c r="B5" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:3">
       <c r="A6" s="1"/>
-      <c r="B6" s="0" t="s">
+      <c r="B6" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="C6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:3">
       <c r="A7" s="1"/>
-      <c r="B7" s="0" t="s">
+      <c r="B7" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="C7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:3">
       <c r="A8" s="1"/>
-      <c r="B8" s="0" t="s">
+      <c r="B8" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="C8" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:3">
       <c r="A9" s="1"/>
-      <c r="B9" s="0" t="s">
+      <c r="B9" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="0" t="s">
+      <c r="C9" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:3">
       <c r="A10" s="1"/>
-      <c r="B10" s="0" t="s">
+      <c r="B10" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="0" t="s">
+      <c r="C10" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:3">
       <c r="A11" s="1"/>
-      <c r="B11" s="0" t="s">
+      <c r="B11" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="0" t="s">
+      <c r="C11" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:3">
       <c r="A12" s="1"/>
-      <c r="B12" s="0" t="s">
+      <c r="B12" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="0" t="s">
+      <c r="C12" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:3">
       <c r="A13" s="1"/>
-      <c r="B13" s="0" t="s">
+      <c r="B13" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="0" t="s">
+      <c r="C13" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:3">
       <c r="A14" s="1"/>
-      <c r="B14" s="0" t="s">
+      <c r="B14" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="0" t="s">
+      <c r="C14" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:3">
       <c r="A15" s="1"/>
-      <c r="B15" s="0" t="s">
+      <c r="B15" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="0" t="s">
+      <c r="C15" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:3">
       <c r="A16" s="1"/>
-      <c r="B16" s="0" t="s">
+      <c r="B16" t="s">
         <v>30</v>
       </c>
-      <c r="C16" s="0" t="s">
+      <c r="C16" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:3">
       <c r="A17" s="1"/>
-      <c r="B17" s="0" t="s">
+      <c r="B17" t="s">
         <v>32</v>
       </c>
-      <c r="C17" s="0" t="s">
+      <c r="C17" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:3">
       <c r="A18" s="1"/>
-      <c r="B18" s="0" t="s">
+      <c r="B18" t="s">
         <v>34</v>
       </c>
-      <c r="C18" s="0" t="s">
+      <c r="C18" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:3">
       <c r="A19" s="1"/>
-      <c r="B19" s="0" t="s">
+      <c r="B19" t="s">
         <v>36</v>
       </c>
-      <c r="C19" s="0" t="s">
+      <c r="C19" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:3">
       <c r="A20" s="1"/>
-      <c r="B20" s="0" t="s">
+      <c r="B20" t="s">
         <v>38</v>
       </c>
-      <c r="C20" s="0" t="s">
+      <c r="C20" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:3">
       <c r="A21" s="1"/>
-      <c r="B21" s="0" t="s">
+      <c r="B21" t="s">
         <v>40</v>
       </c>
-      <c r="C21" s="0" t="s">
+      <c r="C21" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:3">
       <c r="A22" s="1"/>
-      <c r="B22" s="0" t="s">
+      <c r="B22" t="s">
         <v>42</v>
       </c>
-      <c r="C22" s="0" t="s">
+      <c r="C22" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:3">
       <c r="A23" s="1"/>
-      <c r="B23" s="0" t="s">
+      <c r="B23" t="s">
         <v>44</v>
       </c>
-      <c r="C23" s="0" t="s">
+      <c r="C23" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:3">
       <c r="A24" s="1"/>
-      <c r="B24" s="0" t="s">
+      <c r="B24" t="s">
         <v>46</v>
       </c>
-      <c r="C24" s="0" t="s">
+      <c r="C24" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:3">
       <c r="A25" s="1"/>
-      <c r="B25" s="0" t="s">
+      <c r="B25" t="s">
         <v>48</v>
       </c>
-      <c r="C25" s="0" t="s">
+      <c r="C25" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:3">
       <c r="A26" s="1"/>
-      <c r="B26" s="0" t="s">
+      <c r="B26" t="s">
         <v>50</v>
       </c>
-      <c r="C26" s="0" t="s">
+      <c r="C26" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:3">
       <c r="A27" s="1"/>
-      <c r="B27" s="0" t="s">
+      <c r="B27" t="s">
         <v>52</v>
       </c>
-      <c r="C27" s="0" t="s">
+      <c r="C27" t="s">
         <v>53</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="1"/>
+      <c r="B28" t="s">
+        <v>54</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -4410,10 +3533,10 @@
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x14">
       <controls>
-        <mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1052" r:id="rId133" name="A1">
-              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
+            <control shapeId="1052" name="A1" r:id="rId4">
+              <controlPr print="0" defaultSize="0">
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>0</xdr:col>
@@ -4432,10 +3555,10 @@
             </control>
           </mc:Choice>
         </mc:AlternateContent>
-        <mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1053" r:id="rId134" name="A2">
-              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
+            <control shapeId="1053" name="A2" r:id="rId5">
+              <controlPr print="0" defaultSize="0">
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>0</xdr:col>
@@ -4454,10 +3577,10 @@
             </control>
           </mc:Choice>
         </mc:AlternateContent>
-        <mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1054" r:id="rId135" name="A3">
-              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
+            <control shapeId="1054" name="A3" r:id="rId6">
+              <controlPr print="0" defaultSize="0">
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>0</xdr:col>
@@ -4476,10 +3599,10 @@
             </control>
           </mc:Choice>
         </mc:AlternateContent>
-        <mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1055" r:id="rId136" name="A4">
-              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
+            <control shapeId="1055" name="A4" r:id="rId7">
+              <controlPr print="0" defaultSize="0">
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>0</xdr:col>
@@ -4498,10 +3621,10 @@
             </control>
           </mc:Choice>
         </mc:AlternateContent>
-        <mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1056" r:id="rId137" name="A5">
-              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
+            <control shapeId="1056" name="A5" r:id="rId8">
+              <controlPr print="0" defaultSize="0">
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>0</xdr:col>
@@ -4520,10 +3643,10 @@
             </control>
           </mc:Choice>
         </mc:AlternateContent>
-        <mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1057" r:id="rId138" name="A6">
-              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
+            <control shapeId="1057" name="A6" r:id="rId9">
+              <controlPr print="0" defaultSize="0">
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>0</xdr:col>
@@ -4542,10 +3665,10 @@
             </control>
           </mc:Choice>
         </mc:AlternateContent>
-        <mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1058" r:id="rId139" name="A7">
-              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
+            <control shapeId="1058" name="A7" r:id="rId10">
+              <controlPr print="0" defaultSize="0">
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>0</xdr:col>
@@ -4564,10 +3687,10 @@
             </control>
           </mc:Choice>
         </mc:AlternateContent>
-        <mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1059" r:id="rId140" name="A8">
-              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
+            <control shapeId="1059" name="A8" r:id="rId11">
+              <controlPr print="0" defaultSize="0">
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>0</xdr:col>
@@ -4586,10 +3709,10 @@
             </control>
           </mc:Choice>
         </mc:AlternateContent>
-        <mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1060" r:id="rId141" name="A9">
-              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
+            <control shapeId="1060" name="A9" r:id="rId12">
+              <controlPr print="0" defaultSize="0">
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>0</xdr:col>
@@ -4608,10 +3731,10 @@
             </control>
           </mc:Choice>
         </mc:AlternateContent>
-        <mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1061" r:id="rId142" name="A10">
-              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
+            <control shapeId="1061" name="A10" r:id="rId13">
+              <controlPr print="0" defaultSize="0">
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>0</xdr:col>
@@ -4630,10 +3753,10 @@
             </control>
           </mc:Choice>
         </mc:AlternateContent>
-        <mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1062" r:id="rId143" name="A11">
-              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
+            <control shapeId="1062" name="A11" r:id="rId14">
+              <controlPr print="0" defaultSize="0">
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>0</xdr:col>
@@ -4652,10 +3775,10 @@
             </control>
           </mc:Choice>
         </mc:AlternateContent>
-        <mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1063" r:id="rId144" name="A12">
-              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
+            <control shapeId="1063" name="A12" r:id="rId15">
+              <controlPr print="0" defaultSize="0">
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>0</xdr:col>
@@ -4674,10 +3797,10 @@
             </control>
           </mc:Choice>
         </mc:AlternateContent>
-        <mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1064" r:id="rId145" name="A13">
-              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
+            <control shapeId="1064" name="A13" r:id="rId16">
+              <controlPr print="0" defaultSize="0">
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>0</xdr:col>
@@ -4696,10 +3819,10 @@
             </control>
           </mc:Choice>
         </mc:AlternateContent>
-        <mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1065" r:id="rId146" name="A14">
-              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
+            <control shapeId="1065" name="A14" r:id="rId17">
+              <controlPr print="0" defaultSize="0">
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>0</xdr:col>
@@ -4718,10 +3841,10 @@
             </control>
           </mc:Choice>
         </mc:AlternateContent>
-        <mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1066" r:id="rId147" name="A15">
-              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
+            <control shapeId="1066" name="A15" r:id="rId18">
+              <controlPr print="0" defaultSize="0">
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>0</xdr:col>
@@ -4740,10 +3863,10 @@
             </control>
           </mc:Choice>
         </mc:AlternateContent>
-        <mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1067" r:id="rId148" name="A16">
-              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
+            <control shapeId="1067" name="A16" r:id="rId19">
+              <controlPr print="0" defaultSize="0">
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>0</xdr:col>
@@ -4762,10 +3885,10 @@
             </control>
           </mc:Choice>
         </mc:AlternateContent>
-        <mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1068" r:id="rId149" name="A17">
-              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
+            <control shapeId="1068" name="A17" r:id="rId20">
+              <controlPr print="0" defaultSize="0">
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>0</xdr:col>
@@ -4784,10 +3907,10 @@
             </control>
           </mc:Choice>
         </mc:AlternateContent>
-        <mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1069" r:id="rId150" name="A18">
-              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
+            <control shapeId="1069" name="A18" r:id="rId21">
+              <controlPr print="0" defaultSize="0">
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>0</xdr:col>
@@ -4806,10 +3929,10 @@
             </control>
           </mc:Choice>
         </mc:AlternateContent>
-        <mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1070" r:id="rId151" name="A19">
-              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
+            <control shapeId="1070" name="A19" r:id="rId22">
+              <controlPr print="0" defaultSize="0">
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>0</xdr:col>
@@ -4828,10 +3951,10 @@
             </control>
           </mc:Choice>
         </mc:AlternateContent>
-        <mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1071" r:id="rId152" name="A20">
-              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
+            <control shapeId="1071" name="A20" r:id="rId23">
+              <controlPr print="0" defaultSize="0">
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>0</xdr:col>
@@ -4850,10 +3973,10 @@
             </control>
           </mc:Choice>
         </mc:AlternateContent>
-        <mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1072" r:id="rId153" name="A21">
-              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
+            <control shapeId="1072" name="A21" r:id="rId24">
+              <controlPr print="0" defaultSize="0">
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>0</xdr:col>
@@ -4872,10 +3995,10 @@
             </control>
           </mc:Choice>
         </mc:AlternateContent>
-        <mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1073" r:id="rId154" name="A22">
-              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
+            <control shapeId="1073" name="A22" r:id="rId25">
+              <controlPr print="0" defaultSize="0">
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>0</xdr:col>
@@ -4894,10 +4017,10 @@
             </control>
           </mc:Choice>
         </mc:AlternateContent>
-        <mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1074" r:id="rId155" name="A23">
-              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
+            <control shapeId="1074" name="A23" r:id="rId26">
+              <controlPr print="0" defaultSize="0">
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>0</xdr:col>
@@ -4916,10 +4039,10 @@
             </control>
           </mc:Choice>
         </mc:AlternateContent>
-        <mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1075" r:id="rId156" name="A24">
-              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
+            <control shapeId="1075" name="A24" r:id="rId27">
+              <controlPr print="0" defaultSize="0">
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>0</xdr:col>
@@ -4938,10 +4061,10 @@
             </control>
           </mc:Choice>
         </mc:AlternateContent>
-        <mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1076" r:id="rId157" name="A25">
-              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
+            <control shapeId="1076" name="A25" r:id="rId28">
+              <controlPr print="0" defaultSize="0">
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>0</xdr:col>
@@ -4960,10 +4083,10 @@
             </control>
           </mc:Choice>
         </mc:AlternateContent>
-        <mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1077" r:id="rId158" name="A26">
-              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
+            <control shapeId="1077" name="A26" r:id="rId29">
+              <controlPr print="0" defaultSize="0">
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>0</xdr:col>
@@ -4982,10 +4105,10 @@
             </control>
           </mc:Choice>
         </mc:AlternateContent>
-        <mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1078" r:id="rId159" name="A27">
-              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
+            <control shapeId="1078" name="A27" r:id="rId30">
+              <controlPr print="0" defaultSize="0">
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>0</xdr:col>
@@ -4997,6 +4120,28 @@
                     <xdr:col>0</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
                     <xdr:row>27</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1082" name="A27" r:id="rId31">
+              <controlPr print="0" defaultSize="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>0</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>27</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>0</xdr:col>
+                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:row>28</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
